--- a/src/test/resources/TestData/PolicyTestdata.xlsx
+++ b/src/test/resources/TestData/PolicyTestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSC\git\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57918740-C6E1-48B9-B357-52BAFF5924A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09620E-C826-42EF-A8C7-4C7E5A97F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="886" firstSheet="34" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policies003" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,23 @@
     <sheet name="Policies008_2" sheetId="28" r:id="rId26"/>
     <sheet name="Policies008_3" sheetId="29" r:id="rId27"/>
     <sheet name="Policies008_4" sheetId="30" r:id="rId28"/>
+    <sheet name="Policies009" sheetId="31" r:id="rId29"/>
+    <sheet name="Policies012" sheetId="49" r:id="rId30"/>
+    <sheet name="Policies013" sheetId="33" r:id="rId31"/>
+    <sheet name="Policies014" sheetId="34" r:id="rId32"/>
+    <sheet name="Policies015" sheetId="35" r:id="rId33"/>
+    <sheet name="Policies015A1" sheetId="37" r:id="rId34"/>
+    <sheet name="Policies015B" sheetId="38" r:id="rId35"/>
+    <sheet name="Policies015C" sheetId="39" r:id="rId36"/>
+    <sheet name="Policies015D" sheetId="40" r:id="rId37"/>
+    <sheet name="Policies015E" sheetId="41" r:id="rId38"/>
+    <sheet name="Policies015F" sheetId="42" r:id="rId39"/>
+    <sheet name="Policies015G" sheetId="43" r:id="rId40"/>
+    <sheet name="Policies016A" sheetId="44" r:id="rId41"/>
+    <sheet name="Policies022A" sheetId="45" r:id="rId42"/>
+    <sheet name="Policies022_1" sheetId="46" r:id="rId43"/>
+    <sheet name="Policies022_2" sheetId="47" r:id="rId44"/>
+    <sheet name="Policies023_1" sheetId="48" r:id="rId45"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,8 +68,1216 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3261DC78-ED45-4667-9CF6-F142B5FA1B07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D368E453-05A2-470C-AEEE-F3257A768C8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{53063372-8398-4BAC-8E47-4D7B28D32101}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D4C45B35-5029-4213-AFB7-841906553E3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5D4A52DE-D9B0-44BD-AC31-4BB17C4F02E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DEAD2313-0AAB-458E-9A0A-2FA710935CE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{02BF995A-A6EB-4EE0-B4C1-2A9B9F5F0D46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3F8119F6-19A9-4277-9891-1086621C55F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0FCCD70F-80D2-434F-B8E3-3029FC41FE8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FE9A35E9-8908-42C7-8C42-BEB32D4FDF85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{56D39A8D-9D1A-4937-9BF0-BE9B4BA2AEA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0ABE594E-5DB4-452A-AFBB-02FA6499AA03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{526B061F-8312-4125-AF22-2EC8001C294E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{469D39CD-6AB1-433C-8825-1F9417D0577E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{52D569A4-BB49-4886-ACBB-1DE99F37F940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6E678D66-23F7-4FA9-A155-B56EA013F235}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{70ABE110-B958-4A68-979E-6A4188893AA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A410DC9E-8B7F-46B3-96EC-20AF14A43DA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{69677D7A-2264-47B6-9CA4-33BC5DC82417}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C9F749E1-4FC1-4CBF-BBD0-AFA872670129}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FD3CD0D5-1EFA-4572-ACF1-134DD16C6380}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the Interger part of the Expiry Password data from the drop down list</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{58D19304-53AE-43C2-AD26-22030EF2B3BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{878D37F9-BA42-4424-BA65-39D0E67EDF12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2466DA15-1BB6-4854-8BA5-9E92868D0128}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E4D54D45-5C8B-43B1-8B75-CFBD0A8828D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E0EF8362-34D0-4ECB-8D0B-AD43DDACCCE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0B666BBD-6E3C-4AC3-AE28-9B2E1A51C0B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A970D385-F2C7-4927-B9AC-FD31C9A92A87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{8C72FA9D-59EB-449D-9531-EBF6024B0FCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{91632F9C-B32F-464B-8629-FB740EC4C21A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9CDF3E8A-4C61-4F37-A450-8599B82F406E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6442B79E-0EDC-4EE6-8A8B-B572372EA46A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1265F8EC-D824-4990-8ED1-0859243180F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BD447965-45FC-4AE6-A45C-A6952167F413}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{42D11A66-75CD-469A-A523-CE0D8C27E62F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5902D697-6827-454E-A5FA-54EA2BFA6500}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E15CDAD2-5F57-4F1B-BB29-D1959B74791B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3D73D122-8602-4FB7-B71C-BB161BFD0600}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{985C8D5E-075D-47C2-8A9F-9F7887D6C70A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EDAA7AD2-EF8A-4101-A586-72B329868BE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wrong/Invalid PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CEFE0BC0-4911-4566-BED2-AF50050C9BB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Correct PW with less chars as set in Policy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7C622B9D-BA59-4D86-831D-18A798C46BB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+New Password while resetting</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -72,299 +1297,566 @@
     <t>UserType</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Sr Manager</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>PL1</t>
+  </si>
+  <si>
+    <t>PL2</t>
+  </si>
+  <si>
+    <t>PL3</t>
+  </si>
+  <si>
+    <t>PL4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>PL5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>PL6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>PL7</t>
+  </si>
+  <si>
+    <t>1234567890123</t>
+  </si>
+  <si>
+    <t>12345678901234</t>
+  </si>
+  <si>
+    <t>PL8</t>
+  </si>
+  <si>
+    <t>PL9</t>
+  </si>
+  <si>
+    <t>123456789012345</t>
+  </si>
+  <si>
+    <t>PL10</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>Expmsg</t>
+  </si>
+  <si>
+    <t>12334</t>
+  </si>
+  <si>
+    <t>InvalidPassword</t>
+  </si>
+  <si>
+    <t>IPL2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(6 characters).</t>
+  </si>
+  <si>
+    <t>IPL3</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(7 characters).</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(8 characters).</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(9 characters).</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(10 characters).</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(11 characters).</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>IPL4</t>
+  </si>
+  <si>
+    <t>IPL5</t>
+  </si>
+  <si>
+    <t>IPL6</t>
+  </si>
+  <si>
+    <t>IPL7</t>
+  </si>
+  <si>
+    <t>IPL8</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(12 characters).</t>
+  </si>
+  <si>
+    <t>IPL9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(13 characters).</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(14 characters).</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(15 characters).</t>
+  </si>
+  <si>
+    <t>IPL10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Password length is less than the Minimum Length(16 characters).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expmsg </t>
+  </si>
+  <si>
+    <t>123455</t>
+  </si>
+  <si>
+    <t>Password expired, please change the password.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>wPW</t>
+  </si>
+  <si>
+    <t>nPW</t>
+  </si>
+  <si>
+    <t>cPW</t>
+  </si>
+  <si>
+    <t>222222</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Sr Manager</t>
-  </si>
-  <si>
-    <t>System Administrator</t>
-  </si>
-  <si>
-    <t>NewPassword</t>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12345678912</t>
+  </si>
+  <si>
+    <t>11111111111</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>123456789123</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>1234567891234</t>
+  </si>
+  <si>
+    <t>1111111111111</t>
+  </si>
+  <si>
+    <t>12345678912345</t>
+  </si>
+  <si>
+    <t>11111111111111</t>
+  </si>
+  <si>
+    <t>123456789123456</t>
+  </si>
+  <si>
+    <t>111111111111111</t>
+  </si>
+  <si>
+    <t>PL11</t>
+  </si>
+  <si>
+    <t>1234567891234567</t>
+  </si>
+  <si>
+    <t>1111111111111111</t>
+  </si>
+  <si>
+    <t>PWLength</t>
+  </si>
+  <si>
+    <t>exPw</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>PLT008b</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>PLT008c</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>123457</t>
+  </si>
+  <si>
+    <t>123485</t>
+  </si>
+  <si>
+    <t>123453</t>
+  </si>
+  <si>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>123451</t>
+  </si>
+  <si>
+    <t>1234511</t>
+  </si>
+  <si>
+    <t>124455</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Password will Expire within 5 days</t>
+  </si>
+  <si>
+    <t>11a</t>
   </si>
   <si>
     <t>123123</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>1231234</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>12312345</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>123123456</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PL1</t>
-  </si>
-  <si>
-    <t>PL2</t>
-  </si>
-  <si>
-    <t>PL3</t>
-  </si>
-  <si>
-    <t>PL4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>1231234560</t>
-  </si>
-  <si>
-    <t>PL5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
-    <t>12312345601</t>
-  </si>
-  <si>
-    <t>PL6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>123456789012</t>
-  </si>
-  <si>
-    <t>123123456012</t>
-  </si>
-  <si>
-    <t>PL7</t>
+    <t>112233</t>
+  </si>
+  <si>
+    <t>Password will Expire within 4 days</t>
+  </si>
+  <si>
+    <t>PLT011A</t>
+  </si>
+  <si>
+    <t>Operation was not successful. Password has expired, please login the application to change the password.</t>
+  </si>
+  <si>
+    <t>User account has been disabled, please contact administrator</t>
+  </si>
+  <si>
+    <t>Expalert</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>PLT015A</t>
+  </si>
+  <si>
+    <t>PLT015F</t>
+  </si>
+  <si>
+    <t>15F</t>
+  </si>
+  <si>
+    <t>PLT015G</t>
+  </si>
+  <si>
+    <t>15G</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>1234567890123</t>
-  </si>
-  <si>
-    <t>1231234560123</t>
-  </si>
-  <si>
-    <t>12345678901234</t>
-  </si>
-  <si>
-    <t>PL8</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>12312345601234</t>
-  </si>
-  <si>
-    <t>PL9</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>123456789012345</t>
-  </si>
-  <si>
-    <t>123123456012345</t>
-  </si>
-  <si>
-    <t>PL10</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>1234567890123456</t>
-  </si>
-  <si>
-    <t>1231234560123456</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>Expmsg</t>
-  </si>
-  <si>
-    <t>12334</t>
-  </si>
-  <si>
-    <t>InvalidPassword</t>
-  </si>
-  <si>
-    <t>IPL2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(6 characters).</t>
-  </si>
-  <si>
-    <t>IPL3</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(7 characters).</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(8 characters).</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(9 characters).</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(10 characters).</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(11 characters).</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>IPL4</t>
-  </si>
-  <si>
-    <t>IPL5</t>
-  </si>
-  <si>
-    <t>IPL6</t>
-  </si>
-  <si>
-    <t>IPL7</t>
-  </si>
-  <si>
-    <t>IPL8</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(12 characters).</t>
-  </si>
-  <si>
-    <t>IPL9</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(13 characters).</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(14 characters).</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(15 characters).</t>
-  </si>
-  <si>
-    <t>IPL10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Password length is less than the Minimum Length(16 characters).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expmsg </t>
-  </si>
-  <si>
-    <t>123455</t>
-  </si>
-  <si>
-    <t>Password expired, please change the password.</t>
-  </si>
-  <si>
-    <t>PLT008_1</t>
-  </si>
-  <si>
-    <t>008B</t>
-  </si>
-  <si>
-    <t>PLT008_2</t>
-  </si>
-  <si>
-    <t>008C</t>
-  </si>
-  <si>
-    <t>PLT008_3</t>
-  </si>
-  <si>
-    <t>008D</t>
-  </si>
-  <si>
-    <t>008E</t>
-  </si>
-  <si>
-    <t>PLT008_4</t>
-  </si>
-  <si>
-    <t>0083d</t>
-  </si>
-  <si>
-    <t>PLT008d</t>
+    <t>16A4</t>
+  </si>
+  <si>
+    <t>PLT016A4</t>
+  </si>
+  <si>
+    <t>PL022A</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
+    <t>1A31@1</t>
+  </si>
+  <si>
+    <t>PL022A1</t>
+  </si>
+  <si>
+    <t>22A1</t>
+  </si>
+  <si>
+    <t>PL022A2</t>
+  </si>
+  <si>
+    <t>22A2</t>
+  </si>
+  <si>
+    <t>1A3111</t>
+  </si>
+  <si>
+    <t>PL022A3</t>
+  </si>
+  <si>
+    <t>22A3</t>
+  </si>
+  <si>
+    <t>1@3111</t>
+  </si>
+  <si>
+    <t>123111</t>
+  </si>
+  <si>
+    <t>AAAQQQ</t>
+  </si>
+  <si>
+    <t>!@#$%^</t>
+  </si>
+  <si>
+    <t>22A4</t>
+  </si>
+  <si>
+    <t>22A5</t>
+  </si>
+  <si>
+    <t>22A6</t>
+  </si>
+  <si>
+    <t>PL022A6</t>
+  </si>
+  <si>
+    <t>PL022A5</t>
+  </si>
+  <si>
+    <t>PL022A4</t>
+  </si>
+  <si>
+    <t>EXPmsg</t>
+  </si>
+  <si>
+    <t>Password must contain atleast one special character ,one uppercase and one numeric</t>
+  </si>
+  <si>
+    <t>IPL11A</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>IPL12</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>PLT008b1</t>
+  </si>
+  <si>
+    <t>8b1</t>
+  </si>
+  <si>
+    <t>15b1</t>
+  </si>
+  <si>
+    <t>PLT015B11</t>
+  </si>
+  <si>
+    <t>PLT015C1</t>
+  </si>
+  <si>
+    <t>15C1</t>
+  </si>
+  <si>
+    <t>PLT015D1</t>
+  </si>
+  <si>
+    <t>15D1</t>
+  </si>
+  <si>
+    <t>PLT015E15</t>
+  </si>
+  <si>
+    <t>15E15</t>
+  </si>
+  <si>
+    <t>Policy023</t>
+  </si>
+  <si>
+    <t>p023</t>
+  </si>
+  <si>
+    <t>PLT008d1</t>
+  </si>
+  <si>
+    <t>8d1</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>PLT015xxx</t>
+  </si>
+  <si>
+    <t>15ba11</t>
+  </si>
+  <si>
+    <t>PLT008E1</t>
+  </si>
+  <si>
+    <t>8E1</t>
+  </si>
+  <si>
+    <t>124456</t>
+  </si>
+  <si>
+    <t>changePwd</t>
+  </si>
+  <si>
+    <t>124457</t>
+  </si>
+  <si>
+    <t>PLT0012B</t>
+  </si>
+  <si>
+    <t>12PLB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +1872,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +1902,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +1963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,17 +2003,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,22 +2300,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,182 +2325,203 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC199866-B0C1-42E5-B81D-6B065ACF2979}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC199866-B0C1-42E5-B81D-6B065ACF2979}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{1C2C5167-E27A-4DD5-AA25-09A2C9D20687}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830A5920-5A30-4449-92EF-D72213C90C85}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830A5920-5A30-4449-92EF-D72213C90C85}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
+      <c r="G2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{A347417A-326E-4645-8A5E-0B85A919D490}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1023,30 +2563,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1095,36 +2635,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1173,41 +2713,41 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{BB00F5FA-B28A-4460-93C8-33AF1FAC3F26}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{36425C4D-29EE-4BD4-991F-F2F6039821B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1218,7 +2758,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,36 +2791,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1330,36 +2870,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1407,36 +2947,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1485,36 +3025,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1563,36 +3103,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1604,19 +3144,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B00C162-5D12-442B-B9B2-6799EB6AAC78}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B00C162-5D12-442B-B9B2-6799EB6AAC78}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,43 +3165,53 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{C27CCCCB-B641-46F9-9ED4-4888BA8DFED3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1702,36 +3253,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +3298,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1780,36 +3331,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +3376,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,36 +3409,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +3454,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,36 +3487,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1977,11 +3528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E336E99-E12B-4B5D-8E02-D35BF6E90D3C}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E336E99-E12B-4B5D-8E02-D35BF6E90D3C}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,7 +3545,7 @@
     <col min="7" max="7" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2011,33 +3562,39 @@
         <v>5</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>91</v>
+      <c r="F2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2045,15 +3602,16 @@
     <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{9EFA9A5A-0C14-47B6-B353-40E11B1B9501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FE580B-C759-4C57-8378-76FE39631E47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FE580B-C759-4C57-8378-76FE39631E47}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,30 +3636,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -2109,26 +3667,27 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
+      <c r="F2" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{DCF41E43-9F4F-48E1-AA2A-2F7E5A2EC868}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{0CFCA452-3789-401B-92B8-F2E2A961C4EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C96C7F-2448-4DFE-A523-847A5513A0C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C96C7F-2448-4DFE-A523-847A5513A0C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2141,10 +3700,8 @@
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2158,30 +3715,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -2189,30 +3746,31 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
+      <c r="F2" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{DB0E8246-1664-4C3D-A4A8-0BCFFEA6A800}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{E921BAD0-6C03-4454-ADDD-0463B2338A08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D01A18E-360B-4012-81C6-2FE21FE6E96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D01A18E-360B-4012-81C6-2FE21FE6E96A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,7 +3781,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2238,30 +3796,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -2269,30 +3827,31 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
+      <c r="F2" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{C1A3FE94-33E7-4EC4-A868-90489E85C395}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{33DC9CF0-6F02-42C8-AE1E-BB961F15C1E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D683C-79DC-4FEE-BEFB-15848DFF7B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D683C-79DC-4FEE-BEFB-15848DFF7B1E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,7 +3862,7 @@
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" customWidth="1"/>
     <col min="8" max="8" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2318,30 +3877,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
@@ -2349,26 +3908,340 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
+      <c r="F2" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{0E7AC5E0-B0E9-4714-8A29-87E1883D69BE}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{E76C5CF5-A7C1-4D02-B2A9-D556F3C9BC62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C34E7C-15C8-4607-8569-36EEC46B2899}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B8B787-52EC-4A39-8D30-F51E4308F3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B8B787-52EC-4A39-8D30-F51E4308F3ED}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF70D5AE-7BAC-44E8-81C3-CB2CCBEBB3AD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{698CC240-2653-465C-AA2C-DA7A76ACDD18}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8805A94F-A5B6-4EB8-A5CD-F3EC2B03B56C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="43.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{47D1293B-6D58-4031-9E7C-33A85526EBFE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99CEF89-468C-48AD-A710-276F78563054}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="95.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D39A80-022C-4A7D-9879-A4080D335785}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2377,70 +4250,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
+      <c r="G1" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
+      <c r="G2" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{2977CDA8-D010-45E2-9D93-E4DD21DE7B6A}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{FB24EDE1-EEBD-42D1-A259-D6532FFC6923}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{CC6EAB16-0D2A-46BB-839D-EEE2BCFB7323}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2F099-7390-4514-936D-399F8939AD3C}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3F8B16-54E7-4086-BCB1-25D62CC0E858}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{AC7BB294-2D11-432A-AB99-9321CBDFF7A9}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{21960520-3E33-4939-AB57-1A03F395E74D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7226700-E2CB-45A6-8A86-AA86605A286F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2449,419 +4397,1267 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
+      <c r="G1" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>20</v>
+      <c r="G2" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{74543A69-0AD2-4270-B69B-54E0357BFCD3}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{F00421EB-2F8F-4268-94D3-FC4817B45520}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{EB87D48B-4624-41B6-82A4-A902B58F1A6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9517B8D4-572B-4531-8651-448E743C5423}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D69D402-AEDF-430B-88CF-B2B179A1D377}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{2CED2AE5-000F-4477-9595-D58BCA84B3FA}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{97C2F462-C640-422B-A562-67B5CED009EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81F0515-1866-43D2-BE88-354B7ECE4235}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{954D0B2A-2350-41CF-9FB6-A16EECE4FCDD}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{288D71DF-5B1A-4A55-B957-DF31B53C46B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA30A6-ABF4-42A3-B540-552583DA4B40}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{8843EFB2-33EF-4770-A791-AE40AD742D1D}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{7773332B-CDB3-41B9-B6F9-31546802A15D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E996000B-E644-477B-961D-45EC894C99BE}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{A6AF4E38-A449-475B-8185-5F0BF9999558}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{74E9E6CD-304D-4036-A96C-9C400E760B31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2F099-7390-4514-936D-399F8939AD3C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE2B63-605F-4961-87AF-99B59910B532}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{457B86B6-5ACB-4A05-A586-9864687BD95B}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{949DFDEC-7DBE-423C-AAC2-3B6372547F51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA71E4C-5E10-45F8-8989-9191B7A489EA}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{A0A33A76-AC9B-42C5-AAA4-85C44000E3FE}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Welcome5@AM" xr:uid="{00B47622-CC8C-4D91-86A2-F7241314BBE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E623FA-4B32-424C-B7F5-06D45E134F8C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5BD08E1A-8522-43FA-9F64-F420AF674321}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{63A23DA0-7852-4AB0-84BE-D3F29E90B125}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A2034-AF8D-4737-8BFB-564C0FD4B7E2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{754BA220-5315-4CE2-B620-67573ABE4CD0}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{E4E261FF-0F82-45A4-B9B5-321A3A08B9E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E086D9CD-ECE1-4CC0-A7E8-D52086886CFA}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
+      <c r="G2" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{67AC7B81-0B05-4FC9-9949-7FDB7EB1F00D}"/>
+    <hyperlink ref="C2" r:id="rId1" display="1A31@1" xr:uid="{118A0058-8BC1-4C34-92A8-82E723A288B1}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BD26752A-7498-482D-AB67-51228A3E16F4}"/>
+    <hyperlink ref="C4" r:id="rId3" display="1A31@1" xr:uid="{2DC06FE3-7C6B-498C-8D49-853583B2A039}"/>
+    <hyperlink ref="C5" r:id="rId4" display="1A31@1" xr:uid="{57D95946-4ABB-4B4B-88C3-AE782A28A2D2}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{158285CC-9E01-4FB6-AE90-7EE8900E0802}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F63AB92E-A215-484F-93CC-9FA191E81FCC}"/>
+    <hyperlink ref="D4" r:id="rId7" display="1A31@1" xr:uid="{F20FDC3F-1303-4098-877B-980E0B2DC5A5}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{6CDABDDA-BF03-486E-849C-4DE1E07003A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9984D82-920C-461A-98FF-A41A7669EA6A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{39F3CE0D-0299-44C5-85F0-AB6C2AEF8891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C49EC6-F92F-4819-9A16-5866AB02DA61}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9517B8D4-572B-4531-8651-448E743C5423}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C49EC6-F92F-4819-9A16-5866AB02DA61}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>32</v>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{FA020265-6371-44E4-BEB0-3BADFF7D8593}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBF83A5-8D7E-428C-8E17-E05A89EBA4A5}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBF83A5-8D7E-428C-8E17-E05A89EBA4A5}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
+      <c r="G2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{FCD00058-D705-43C3-AADE-61C1432B2AAD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237258DE-DB32-4CB6-BB4C-B46A2347F3D1}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237258DE-DB32-4CB6-BB4C-B46A2347F3D1}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
+      <c r="G2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{B56214D7-E7D2-4319-9F1A-0F83BA8F2FB1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7644EBEA-ED99-450D-987F-30392F14A6B7}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7644EBEA-ED99-450D-987F-30392F14A6B7}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
+      <c r="G2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Welcome5@AM" xr:uid="{52C6BC68-C3FD-43C6-8303-B4715A933444}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/PolicyTestdata.xlsx
+++ b/src/test/resources/TestData/PolicyTestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\VRT\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09620E-C826-42EF-A8C7-4C7E5A97F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A9D61-2227-4EAE-B665-23212050E438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="886" firstSheet="34" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" tabRatio="886" firstSheet="22" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policies003" sheetId="1" r:id="rId1"/>
@@ -1780,12 +1780,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>PLT008b1</t>
-  </si>
-  <si>
-    <t>8b1</t>
-  </si>
-  <si>
     <t>15b1</t>
   </si>
   <si>
@@ -1816,12 +1810,6 @@
     <t>p023</t>
   </si>
   <si>
-    <t>PLT008d1</t>
-  </si>
-  <si>
-    <t>8d1</t>
-  </si>
-  <si>
     <t>730</t>
   </si>
   <si>
@@ -1831,12 +1819,6 @@
     <t>15ba11</t>
   </si>
   <si>
-    <t>PLT008E1</t>
-  </si>
-  <si>
-    <t>8E1</t>
-  </si>
-  <si>
     <t>124456</t>
   </si>
   <si>
@@ -1850,6 +1832,24 @@
   </si>
   <si>
     <t>12PLB</t>
+  </si>
+  <si>
+    <t>PLT008a</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>PLT008d</t>
+  </si>
+  <si>
+    <t>8d</t>
+  </si>
+  <si>
+    <t>PLT008E</t>
+  </si>
+  <si>
+    <t>8E</t>
   </si>
 </sst>
 </file>
@@ -2307,17 +2307,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2383,16 +2383,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -2458,16 +2458,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -2533,17 +2533,17 @@
       <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -2605,17 +2605,17 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2683,17 +2683,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -2761,17 +2761,17 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="72.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
@@ -2839,18 +2839,18 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="73.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
@@ -2918,16 +2918,16 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="3" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="82.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>58</v>
       </c>
@@ -2995,17 +2995,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="5" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="73.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
@@ -3073,17 +3073,17 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -3151,13 +3151,13 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3223,17 +3223,17 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
@@ -3301,17 +3301,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="62.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
@@ -3379,17 +3379,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
@@ -3457,17 +3457,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>165</v>
       </c>
@@ -3531,21 +3531,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E336E99-E12B-4B5D-8E02-D35BF6E90D3C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3571,12 +3571,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>6</v>
@@ -3611,21 +3611,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="48.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3651,12 +3651,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>114</v>
@@ -3694,17 +3694,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>109</v>
       </c>
@@ -3769,23 +3769,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D01A18E-360B-4012-81C6-2FE21FE6E96A}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3811,12 +3811,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>115</v>
@@ -3834,7 +3834,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3850,23 +3850,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D683C-79DC-4FEE-BEFB-15848DFF7B1E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="45.44140625" customWidth="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3892,12 +3892,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>117</v>
@@ -3932,16 +3932,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>70</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>120</v>
       </c>
@@ -3971,17 +3971,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -4047,19 +4047,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4085,15 +4085,15 @@
         <v>104</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>116</v>
@@ -4105,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>72</v>
@@ -4114,7 +4114,7 @@
         <v>84</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4134,17 +4134,17 @@
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>125</v>
       </c>
@@ -4213,12 +4213,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.5546875" customWidth="1"/>
+    <col min="1" max="1" width="95.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>70</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>126</v>
       </c>
@@ -4248,17 +4248,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
@@ -4321,18 +4321,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4355,12 +4355,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -4395,15 +4395,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="58.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4426,12 +4426,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -4466,12 +4466,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4491,12 +4491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -4528,15 +4528,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4556,12 +4556,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -4593,15 +4593,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4621,12 +4621,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -4658,16 +4658,16 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>131</v>
       </c>
@@ -4724,17 +4724,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4800,15 +4800,15 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>133</v>
       </c>
@@ -4865,17 +4865,17 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>140</v>
       </c>
@@ -4932,15 +4932,15 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>141</v>
       </c>
@@ -4997,15 +4997,15 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>144</v>
       </c>
@@ -5062,16 +5062,16 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="45.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>146</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>159</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>158</v>
       </c>
@@ -5229,20 +5229,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9984D82-920C-461A-98FF-A41A7669EA6A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5259,12 +5259,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>122</v>
@@ -5292,17 +5292,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -5368,18 +5368,18 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -5445,16 +5445,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -5520,16 +5520,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5595,16 +5595,16 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
